--- a/training/results_raw.xlsx
+++ b/training/results_raw.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plotnikov.gleb\Documents\04.Private\Road_monitoring\training\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="12" windowWidth="20952" windowHeight="9720"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
-  <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Имя модели</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="205">
+  <si>
+    <t>Имя модели</t>
   </si>
   <si>
     <t xml:space="preserve">Тип модели </t>
@@ -96,9 +96,6 @@
     <t>YOLOv8s</t>
   </si>
   <si>
-    <t>RoadDamage</t>
-  </si>
-  <si>
     <t>—</t>
   </si>
   <si>
@@ -408,7 +405,7 @@
     <t>YOLOv8s_rdd_filtered</t>
   </si>
   <si>
-    <t xml:space="preserve">RDD_filtered (Git)</t>
+    <t>RDD_filtered (Git)</t>
   </si>
   <si>
     <t>mix</t>
@@ -571,28 +568,109 @@
   </si>
   <si>
     <t>YOLOv9t</t>
+  </si>
+  <si>
+    <t>метрики класса продольные трещины (D00)</t>
+  </si>
+  <si>
+    <t>метрики класса поперечные трещины (D10)</t>
+  </si>
+  <si>
+    <t>Метрики класса сетка трещин (D20)</t>
+  </si>
+  <si>
+    <t>Метрики класса выбоины (D40)</t>
+  </si>
+  <si>
+    <t>Метрики по всем классам</t>
+  </si>
+  <si>
+    <t>Эксперимент</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.329</t>
+  </si>
+  <si>
+    <t>0.553</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>0.711</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.732</t>
+  </si>
+  <si>
+    <t>0.738</t>
+  </si>
+  <si>
+    <t>0.463</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="64"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -605,39 +683,48 @@
   </fills>
   <borders count="2">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,291 +739,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -1127,812 +931,859 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="17.00390625"/>
-    <col customWidth="1" min="3" max="4" width="12.57421875"/>
-    <col customWidth="1" min="5" max="5" width="15.57421875"/>
-    <col customWidth="1" min="6" max="6" width="7.00390625"/>
-    <col customWidth="1" min="9" max="9" width="8.28125"/>
-    <col customWidth="1" min="10" max="10" width="8.57421875"/>
-    <col customWidth="1" min="13" max="13" width="7.57421875"/>
-    <col customWidth="1" min="14" max="14" width="12.140625"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" ht="16.5">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>47</v>
+      <c r="P4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="3" ht="16.5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="2" t="s">
+    <row r="5" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" ht="33">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="6" ht="33">
+    <row r="6" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="7" ht="33">
+    <row r="7" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="8" ht="33">
+    <row r="8" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="X8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="Y8" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="9" ht="33">
+    <row r="9" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="Q10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R9" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="W10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="W9" s="2" t="s">
+      <c r="Z10" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>182</v>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="10" ht="33">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>27</v>
-      </c>
+    <row r="12" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J14" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <mergeCells count="5">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>